--- a/test_ImageConversion/ImageConversionTestCases.xlsx
+++ b/test_ImageConversion/ImageConversionTestCases.xlsx
@@ -120,27 +120,15 @@
     <t>Load image with valid file format and non-empty</t>
   </si>
   <si>
-    <t>Load image file with invald file format</t>
-  </si>
-  <si>
     <t>Load a created file with 0 width and 0 height.</t>
   </si>
   <si>
-    <t>Test invalid image width</t>
-  </si>
-  <si>
     <t>Test Cases (inputs)</t>
   </si>
   <si>
     <t>Test normal case, valid width and height</t>
   </si>
   <si>
-    <t>Test invalid height</t>
-  </si>
-  <si>
-    <t>Test very large height</t>
-  </si>
-  <si>
     <t>Test very large width, where width/(h/48) &lt; 250</t>
   </si>
   <si>
@@ -174,15 +162,9 @@
     <t>test_printBitArray_valid0()</t>
   </si>
   <si>
-    <t>Input valid matrix filled with 0s</t>
-  </si>
-  <si>
     <t>test_printBitArray_valid1()</t>
   </si>
   <si>
-    <t>Input valid matrix filled with 1s</t>
-  </si>
-  <si>
     <t>test_printBitArray_largeRow()</t>
   </si>
   <si>
@@ -195,33 +177,18 @@
     <t>matrix = [1][1][1][1], [1][1][1][1]</t>
   </si>
   <si>
-    <t>Input valid matrix with large number of rows</t>
-  </si>
-  <si>
-    <t>matrix = 48 rows filled with 0s</t>
-  </si>
-  <si>
     <t>test_printBitArray_largeCol()</t>
   </si>
   <si>
-    <t>Input valid matrix with large number of columns</t>
-  </si>
-  <si>
     <t>matrix = 251 columns filled with 1s</t>
   </si>
   <si>
     <t>test_printBitArray_invalidVal()</t>
   </si>
   <si>
-    <t>Input valid matrix filled with integers other than 0 or 1</t>
-  </si>
-  <si>
     <t>matrix = [2][2], [3][4]</t>
   </si>
   <si>
-    <t>Input valid matrix filled with not integers</t>
-  </si>
-  <si>
     <t>matrix = [h][i]</t>
   </si>
   <si>
@@ -237,15 +204,9 @@
     <t>test_signalInterval_normal()</t>
   </si>
   <si>
-    <t>Input valid width</t>
-  </si>
-  <si>
     <t>w=50</t>
   </si>
   <si>
-    <t>Input large width &gt;= 250</t>
-  </si>
-  <si>
     <t>test_signalInterval_GmaxW()</t>
   </si>
   <si>
@@ -256,6 +217,45 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>Load file with invald image file format</t>
+  </si>
+  <si>
+    <t>Test invalid image width with valid height</t>
+  </si>
+  <si>
+    <t>Test invalid height with valid width</t>
+  </si>
+  <si>
+    <t>Test very large height with valid width</t>
+  </si>
+  <si>
+    <t>Input non empty matrix filled with 0s</t>
+  </si>
+  <si>
+    <t>Input non empty matrix filled with 1s</t>
+  </si>
+  <si>
+    <t>matrix = 49 rows filled with 0s</t>
+  </si>
+  <si>
+    <t>Input non empty matrix with number of columns &gt; 251 filled with 1s</t>
+  </si>
+  <si>
+    <t>Input non empty matrix with  number of rows &gt; 49 filled with 0s</t>
+  </si>
+  <si>
+    <t>Input non empty matrix filled with integers other than 0 or 1</t>
+  </si>
+  <si>
+    <t>Input non empty matrix filled with not integers</t>
+  </si>
+  <si>
+    <t>Input nominal width</t>
+  </si>
+  <si>
+    <t>Input width &gt;= 250</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,16 +643,16 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -717,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -745,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -759,13 +759,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -787,7 +787,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -801,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -826,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -840,10 +840,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>33</v>
@@ -868,10 +868,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -882,10 +882,10 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -896,69 +896,69 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,13 +994,13 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/test_ImageConversion/ImageConversionTestCases.xlsx
+++ b/test_ImageConversion/ImageConversionTestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Test ID</t>
   </si>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>w=300</t>
-  </si>
-  <si>
-    <t>to be added</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
   <si>
     <t>Load file with invald image file format</t>
@@ -599,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,18 +636,6 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -703,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -731,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -773,7 +755,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -787,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -829,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -871,7 +853,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -913,7 +895,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -927,7 +909,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
@@ -941,10 +923,10 @@
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -955,7 +937,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
@@ -969,7 +951,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -983,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>57</v>
@@ -1011,7 +993,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>62</v>
@@ -1025,7 +1007,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>64</v>
